--- a/DKSalaries.xlsx
+++ b/DKSalaries.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L574"/>
+  <dimension ref="A1:L572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3359,14 +3359,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Damarea Crockett</t>
+          <t>J.J. Taylor</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>11.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F132" t="n">
         <v>0.1</v>
@@ -3381,14 +3381,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>J.J. Taylor</t>
+          <t>Jerome Ford</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>9.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="F133" t="n">
         <v>0.1</v>
@@ -3403,14 +3403,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Jerome Ford</t>
+          <t>Royce Freeman</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="D134" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="F134" t="n">
         <v>0.1</v>
@@ -3419,23 +3419,23 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Royce Freeman</t>
+          <t>Deon Jackson</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="D135" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3447,36 +3447,36 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Deon Jackson</t>
+          <t>Zach Evans</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Zach Evans</t>
+          <t>JaMycal Hasty</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="F137" t="n">
         <v>0.1</v>
@@ -3485,20 +3485,20 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>JaMycal Hasty</t>
+          <t>Ke'Shawn Vaughn</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="F138" t="n">
         <v>0.1</v>
@@ -3507,42 +3507,42 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ke'Shawn Vaughn</t>
+          <t>Anthony McFarland Jr.</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="D139" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Anthony McFarland Jr.</t>
+          <t>Hassan Haskins</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="D140" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3551,20 +3551,20 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Hassan Haskins</t>
+          <t>Corey Clement</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -3573,20 +3573,20 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Corey Clement</t>
+          <t>Ameer Abdullah</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="D142" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3595,20 +3595,20 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ameer Abdullah</t>
+          <t>Kene Nwangwu</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="D143" t="n">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -3617,20 +3617,20 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Kene Nwangwu</t>
+          <t>Raheem Blackshear</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -3639,17 +3639,17 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Raheem Blackshear</t>
+          <t>Tyler Badie</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D145" t="n">
         <v>4.2</v>
@@ -3667,14 +3667,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Tyler Badie</t>
+          <t>Travis Homer</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="D146" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Travis Homer</t>
+          <t>Patrick Taylor Jr.</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="D147" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -3705,20 +3705,20 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Patrick Taylor Jr.</t>
+          <t>Demetric Felton Jr.</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="D148" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -3727,20 +3727,20 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Demetric Felton Jr.</t>
+          <t>Rico Dowdle</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="D149" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -3749,23 +3749,23 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Rico Dowdle</t>
+          <t>Boston Scott</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D150" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -3777,36 +3777,36 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Boston Scott</t>
+          <t>Brandon Bolden</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="D151" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Brandon Bolden</t>
+          <t>Gary Brightwell</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D152" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -3815,17 +3815,17 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Gary Brightwell</t>
+          <t>Trayveon Williams</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="D153" t="n">
         <v>2.7</v>
@@ -3837,20 +3837,20 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Trayveon Williams</t>
+          <t>Kyle Juszczyk</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="D154" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -3859,20 +3859,20 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Kyle Juszczyk</t>
+          <t>Dare Ogunbowale</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="D155" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -3881,20 +3881,20 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dare Ogunbowale</t>
+          <t>Chris Evans</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -3909,14 +3909,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Chris Evans</t>
+          <t>Justice Hill</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -3925,20 +3925,20 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Justice Hill</t>
+          <t>Jordan Mason</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D158" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -3947,20 +3947,20 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Jordan Mason</t>
+          <t>Darrynton Evans</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="D159" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -3969,20 +3969,20 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Darrynton Evans</t>
+          <t>C.J. Ham</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="D160" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -3991,20 +3991,20 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>C.J. Ham</t>
+          <t>Reggie Gilliam</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D161" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4013,20 +4013,20 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Reggie Gilliam</t>
+          <t>Jaret Patterson</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="D162" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -4035,20 +4035,20 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jaret Patterson</t>
+          <t>Godwin Igwebuike</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D163" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -4063,14 +4063,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Godwin Igwebuike</t>
+          <t>Snoop Conner</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D164" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4079,20 +4079,20 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Snoop Conner</t>
+          <t>James Robinson</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4101,20 +4101,20 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>James Robinson</t>
+          <t>Mike Boone</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D166" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -4129,14 +4129,14 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mike Boone</t>
+          <t>Ty Johnson</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D167" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -4723,14 +4723,14 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Michael Burton</t>
+          <t>Larry Rountree III</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -4739,20 +4739,20 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Jason Cabinda</t>
+          <t>Michael Burton</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D195" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -4767,14 +4767,14 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Gerrid Doaks</t>
+          <t>Jason Cabinda</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="D196" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -4783,20 +4783,20 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Zander Horvath</t>
+          <t>Gerrid Doaks</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D197" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -4805,20 +4805,20 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Adam Prentice</t>
+          <t>Zander Horvath</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D198" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -4833,14 +4833,14 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Khari Blasingame</t>
+          <t>Adam Prentice</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -4855,14 +4855,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Hunter Luepke</t>
+          <t>Khari Blasingame</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -4877,14 +4877,14 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Henry Pearson</t>
+          <t>Hunter Luepke</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -4899,14 +4899,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Jakob Johnson</t>
+          <t>Henry Pearson</t>
         </is>
       </c>
       <c r="C202" t="n">
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -4921,14 +4921,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Jack Colletto</t>
+          <t>Jakob Johnson</t>
         </is>
       </c>
       <c r="C203" t="n">
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -4943,14 +4943,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Nick Bellore</t>
+          <t>Jack Colletto</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -4959,495 +4959,498 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Tyreek Hill</t>
+          <t>Nick Bellore</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>85.8</v>
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cooper Kupp</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="D206" t="n">
-        <v>79.40000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="G206" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Ja'Marr Chase</t>
+          <t>Cooper Kupp</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="D207" t="n">
-        <v>84.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G207" t="n">
         <v>0.6</v>
       </c>
       <c r="H207" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>Ja'Marr Chase</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="D208" t="n">
-        <v>86</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CeeDee Lamb</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="D209" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Amon-Ra St. Brown</t>
+          <t>CeeDee Lamb</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="D210" t="n">
-        <v>78.3</v>
+        <v>82</v>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Amon-Ra St. Brown</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="D211" t="n">
-        <v>76.8</v>
+        <v>78.3</v>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H211" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="D212" t="n">
-        <v>73.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="G212" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Chris Olave</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D213" t="n">
-        <v>77.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H213" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>Chris Olave</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>72.2</v>
+        <v>77.8</v>
       </c>
       <c r="G214" t="n">
         <v>0.5</v>
       </c>
       <c r="H214" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A.J. Brown</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>73.3</v>
+        <v>72.2</v>
       </c>
       <c r="G215" t="n">
         <v>0.5</v>
       </c>
       <c r="H215" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>A.J. Brown</t>
         </is>
       </c>
       <c r="C216" t="n">
         <v>0.1</v>
       </c>
       <c r="D216" t="n">
-        <v>69</v>
+        <v>73.3</v>
       </c>
       <c r="G216" t="n">
         <v>0.5</v>
       </c>
       <c r="H216" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Amari Cooper</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="C217" t="n">
         <v>0.1</v>
       </c>
       <c r="D217" t="n">
-        <v>66.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="G217" t="n">
         <v>0.5</v>
       </c>
       <c r="H217" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jerry Jeudy</t>
+          <t>Amari Cooper</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="D218" t="n">
-        <v>66.90000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Mike Evans</t>
+          <t>Jerry Jeudy</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="D219" t="n">
-        <v>67.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G219" t="n">
         <v>0.4</v>
       </c>
       <c r="H219" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>Mike Evans</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="D220" t="n">
-        <v>66.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G220" t="n">
         <v>0.4</v>
       </c>
       <c r="H220" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Garrett Wilson</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="C221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="G221" t="n">
         <v>0.4</v>
       </c>
-      <c r="D221" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H221" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Deebo Samuel</t>
+          <t>Garrett Wilson</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>14.1</v>
+        <v>0.4</v>
       </c>
       <c r="D222" t="n">
-        <v>56.8</v>
+        <v>65.2</v>
       </c>
       <c r="G222" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Keenan Allen</t>
+          <t>Deebo Samuel</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>14.1</v>
       </c>
       <c r="D223" t="n">
-        <v>66.09999999999999</v>
+        <v>56.8</v>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H223" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Christian Watson</t>
+          <t>Keenan Allen</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>63.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G224" t="n">
         <v>0.4</v>
       </c>
       <c r="H224" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Tee Higgins</t>
+          <t>Christian Watson</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="D225" t="n">
-        <v>66.59999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="G225" t="n">
         <v>0.4</v>
       </c>
       <c r="H225" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Tyler Lockett</t>
+          <t>Tee Higgins</t>
         </is>
       </c>
       <c r="C226" t="n">
         <v>0.1</v>
       </c>
       <c r="D226" t="n">
-        <v>62</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="G226" t="n">
         <v>0.4</v>
       </c>
       <c r="H226" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Chris Godwin</t>
+          <t>Tyler Lockett</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="D227" t="n">
-        <v>67.40000000000001</v>
+        <v>62</v>
       </c>
       <c r="G227" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H227" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Mike Williams</t>
+          <t>Chris Godwin</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D228" t="n">
-        <v>61.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G228" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H228" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Christian Kirk</t>
+          <t>Mike Williams</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="D229" t="n">
-        <v>62.8</v>
+        <v>61.4</v>
       </c>
       <c r="G229" t="n">
         <v>0.4</v>
       </c>
       <c r="H229" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>DeVonta Smith</t>
+          <t>Christian Kirk</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D230" t="n">
-        <v>64.90000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="G230" t="n">
         <v>0.4</v>
@@ -5459,242 +5462,242 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
+          <t>DeVonta Smith</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>60.6</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G231" t="n">
         <v>0.4</v>
       </c>
       <c r="H231" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Brandin Cooks</t>
+          <t>Terry McLaurin</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D232" t="n">
-        <v>56.4</v>
+        <v>60.6</v>
       </c>
       <c r="G232" t="n">
         <v>0.4</v>
       </c>
       <c r="H232" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DeAndre Hopkins</t>
+          <t>Brandin Cooks</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="n">
-        <v>57.8</v>
+        <v>56.4</v>
       </c>
       <c r="G233" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H233" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>DeAndre Hopkins</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D234" t="n">
-        <v>56.2</v>
+        <v>57.8</v>
       </c>
       <c r="G234" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H234" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>DJ Moore</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>52.2</v>
+        <v>56.2</v>
       </c>
       <c r="G235" t="n">
         <v>0.4</v>
       </c>
       <c r="H235" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Michael Thomas</t>
+          <t>DJ Moore</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D236" t="n">
-        <v>55.9</v>
+        <v>52.2</v>
       </c>
       <c r="G236" t="n">
         <v>0.4</v>
       </c>
       <c r="H236" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Brandon Aiyuk</t>
+          <t>Michael Thomas</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D237" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="G237" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H237" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Michael Pittman Jr.</t>
+          <t>Brandon Aiyuk</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D238" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="G238" t="n">
         <v>0.3</v>
       </c>
       <c r="H238" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Jahan Dotson</t>
+          <t>Michael Pittman Jr.</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D239" t="n">
-        <v>50</v>
+        <v>55.2</v>
       </c>
       <c r="G239" t="n">
         <v>0.3</v>
       </c>
       <c r="H239" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Gabe Davis</t>
+          <t>Jahan Dotson</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="G240" t="n">
         <v>0.3</v>
       </c>
       <c r="H240" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Kadarius Toney</t>
+          <t>Gabe Davis</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>7.3</v>
+        <v>0.1</v>
       </c>
       <c r="D241" t="n">
-        <v>41.1</v>
+        <v>49.9</v>
       </c>
       <c r="G241" t="n">
         <v>0.3</v>
       </c>
       <c r="H241" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Diontae Johnson</t>
+          <t>Kadarius Toney</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.8</v>
+        <v>7.3</v>
       </c>
       <c r="D242" t="n">
-        <v>52.6</v>
+        <v>41.1</v>
       </c>
       <c r="G242" t="n">
         <v>0.3</v>
       </c>
       <c r="H242" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Marquise Brown</t>
+          <t>Diontae Johnson</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D243" t="n">
-        <v>51.5</v>
+        <v>52.6</v>
       </c>
       <c r="G243" t="n">
         <v>0.3</v>
@@ -5706,603 +5709,603 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>George Pickens</t>
+          <t>Marquise Brown</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="D244" t="n">
-        <v>49.9</v>
+        <v>51.5</v>
       </c>
       <c r="G244" t="n">
         <v>0.3</v>
       </c>
       <c r="H244" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Jordan Addison</t>
+          <t>George Pickens</t>
         </is>
       </c>
       <c r="C245" t="n">
         <v>0.4</v>
       </c>
       <c r="D245" t="n">
-        <v>46.4</v>
+        <v>49.9</v>
       </c>
       <c r="G245" t="n">
         <v>0.3</v>
       </c>
       <c r="H245" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>JuJu Smith-Schuster</t>
+          <t>Jordan Addison</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D246" t="n">
-        <v>49.9</v>
+        <v>46.4</v>
       </c>
       <c r="G246" t="n">
         <v>0.3</v>
       </c>
       <c r="H246" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Treylon Burks</t>
+          <t>JuJu Smith-Schuster</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="D247" t="n">
-        <v>46</v>
+        <v>49.9</v>
       </c>
       <c r="G247" t="n">
         <v>0.3</v>
       </c>
       <c r="H247" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Marquez Valdes-Scantling</t>
+          <t>Treylon Burks</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="D248" t="n">
-        <v>44.7</v>
+        <v>46</v>
       </c>
       <c r="G248" t="n">
         <v>0.3</v>
       </c>
       <c r="H248" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Jakobi Meyers</t>
+          <t>Marquez Valdes-Scantling</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D249" t="n">
-        <v>47.3</v>
+        <v>44.7</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H249" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Courtland Sutton</t>
+          <t>Jakobi Meyers</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D250" t="n">
-        <v>43.7</v>
+        <v>47.3</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H250" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Allen Lazard</t>
+          <t>Courtland Sutton</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D251" t="n">
-        <v>43</v>
+        <v>43.7</v>
       </c>
       <c r="G251" t="n">
         <v>0.3</v>
       </c>
       <c r="H251" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Nico Collins</t>
+          <t>Allen Lazard</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D252" t="n">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="G252" t="n">
         <v>0.3</v>
       </c>
       <c r="H252" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>DeVante Parker</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="C253" t="n">
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>44.8</v>
+        <v>45.5</v>
       </c>
       <c r="G253" t="n">
         <v>0.3</v>
       </c>
       <c r="H253" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Zay Flowers</t>
+          <t>DeVante Parker</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>41.8</v>
+        <v>44.8</v>
       </c>
       <c r="G254" t="n">
         <v>0.3</v>
       </c>
       <c r="H254" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>DJ Chark Jr.</t>
+          <t>Zay Flowers</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>43.5</v>
+        <v>41.8</v>
       </c>
       <c r="G255" t="n">
         <v>0.3</v>
       </c>
       <c r="H255" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Rashod Bateman</t>
+          <t>DJ Chark Jr.</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>42.1</v>
+        <v>43.5</v>
       </c>
       <c r="G256" t="n">
         <v>0.3</v>
       </c>
       <c r="H256" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Rondale Moore</t>
+          <t>Rashod Bateman</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="D257" t="n">
-        <v>44.2</v>
+        <v>42.1</v>
       </c>
       <c r="G257" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H257" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Zay Jones</t>
+          <t>Rondale Moore</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="D258" t="n">
-        <v>41.3</v>
+        <v>44.2</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H258" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Jayden Reed</t>
+          <t>Zay Jones</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D259" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="G259" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H259" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Darnell Mooney</t>
+          <t>Jayden Reed</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D260" t="n">
-        <v>40.8</v>
+        <v>41.5</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H260" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Tyler Boyd</t>
+          <t>Darnell Mooney</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D261" t="n">
-        <v>42.1</v>
+        <v>40.8</v>
       </c>
       <c r="G261" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H261" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Hunter Renfrow</t>
+          <t>Tyler Boyd</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D262" t="n">
-        <v>38.5</v>
+        <v>42.1</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H262" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Darius Slayton</t>
+          <t>Hunter Renfrow</t>
         </is>
       </c>
       <c r="C263" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D263" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="G263" t="n">
         <v>0.3</v>
       </c>
-      <c r="D263" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.2</v>
-      </c>
       <c r="H263" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Van Jefferson</t>
+          <t>Darius Slayton</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D264" t="n">
-        <v>38.5</v>
+        <v>41.4</v>
       </c>
       <c r="G264" t="n">
         <v>0.2</v>
       </c>
       <c r="H264" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Marvin Jones Jr.</t>
+          <t>Van Jefferson</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D265" t="n">
-        <v>36.2</v>
+        <v>38.5</v>
       </c>
       <c r="G265" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H265" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Jonathan Mingo</t>
+          <t>Marvin Jones Jr.</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D266" t="n">
-        <v>37.5</v>
+        <v>36.2</v>
       </c>
       <c r="G266" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H266" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Romeo Doubs</t>
+          <t>Jonathan Mingo</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>39.1</v>
+        <v>37.5</v>
       </c>
       <c r="G267" t="n">
         <v>0.2</v>
       </c>
       <c r="H267" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Josh Reynolds</t>
+          <t>Romeo Doubs</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>36.6</v>
+        <v>39.1</v>
       </c>
       <c r="G268" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H268" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Donovan Peoples-Jones</t>
+          <t>Josh Reynolds</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D269" t="n">
-        <v>37.5</v>
+        <v>36.6</v>
       </c>
       <c r="G269" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H269" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Adam Thielen</t>
+          <t>Donovan Peoples-Jones</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>37</v>
+        <v>37.5</v>
       </c>
       <c r="G270" t="n">
         <v>0.2</v>
       </c>
       <c r="H270" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Isaiah Hodgins</t>
+          <t>Adam Thielen</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D271" t="n">
-        <v>34.6</v>
+        <v>37</v>
       </c>
       <c r="G271" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H271" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Curtis Samuel</t>
+          <t>Isaiah Hodgins</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>9.4</v>
+        <v>0.1</v>
       </c>
       <c r="D272" t="n">
-        <v>26.9</v>
+        <v>34.6</v>
       </c>
       <c r="G272" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H272" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Robert Woods</t>
+          <t>Curtis Samuel</t>
         </is>
       </c>
       <c r="C273" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D273" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G273" t="n">
         <v>0.1</v>
       </c>
-      <c r="D273" t="n">
-        <v>36</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.2</v>
-      </c>
       <c r="H273" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>K.J. Osborn</t>
+          <t>Robert Woods</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D274" t="n">
-        <v>32.2</v>
+        <v>36</v>
       </c>
       <c r="G274" t="n">
         <v>0.2</v>
       </c>
       <c r="H274" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Michael Gallup</t>
+          <t>K.J. Osborn</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>34.6</v>
+        <v>32.2</v>
       </c>
       <c r="G275" t="n">
         <v>0.2</v>
@@ -6314,14 +6317,14 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Jaxon Smith-Njigba</t>
+          <t>Michael Gallup</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D276" t="n">
-        <v>33.6</v>
+        <v>34.6</v>
       </c>
       <c r="G276" t="n">
         <v>0.2</v>
@@ -6333,71 +6336,71 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Greg Dortch</t>
+          <t>Jaxon Smith-Njigba</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="D277" t="n">
-        <v>34.8</v>
+        <v>33.6</v>
       </c>
       <c r="G277" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H277" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Corey Davis</t>
+          <t>Greg Dortch</t>
         </is>
       </c>
       <c r="C278" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="G278" t="n">
         <v>0.1</v>
       </c>
-      <c r="D278" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.2</v>
-      </c>
       <c r="H278" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Mack Hollins</t>
+          <t>Corey Davis</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="D279" t="n">
-        <v>31</v>
+        <v>34.7</v>
       </c>
       <c r="G279" t="n">
         <v>0.2</v>
       </c>
       <c r="H279" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>John Metchie III</t>
+          <t>Mack Hollins</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="D280" t="n">
-        <v>32.6</v>
+        <v>31</v>
       </c>
       <c r="G280" t="n">
         <v>0.2</v>
@@ -6409,33 +6412,33 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Khalil Shakir</t>
+          <t>John Metchie III</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D281" t="n">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="G281" t="n">
         <v>0.2</v>
       </c>
       <c r="H281" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Alec Pierce</t>
+          <t>Khalil Shakir</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D282" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="G282" t="n">
         <v>0.2</v>
@@ -6447,318 +6450,318 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Russell Gage</t>
+          <t>Alec Pierce</t>
         </is>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>34.1</v>
+        <v>33.2</v>
       </c>
       <c r="G283" t="n">
         <v>0.2</v>
       </c>
       <c r="H283" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Allen Robinson II</t>
+          <t>Russell Gage</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>32.3</v>
+        <v>34.1</v>
       </c>
       <c r="G284" t="n">
         <v>0.2</v>
       </c>
       <c r="H284" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>Allen Robinson II</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="D285" t="n">
-        <v>29</v>
+        <v>32.3</v>
       </c>
       <c r="G285" t="n">
         <v>0.2</v>
       </c>
       <c r="H285" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Rashid Shaheed</t>
+          <t>Quentin Johnston</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="D286" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="G286" t="n">
         <v>0.2</v>
       </c>
       <c r="H286" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Chase Claypool</t>
+          <t>Rashid Shaheed</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D287" t="n">
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="G287" t="n">
         <v>0.2</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Tyquan Thornton</t>
+          <t>Chase Claypool</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D288" t="n">
-        <v>29.8</v>
+        <v>27.6</v>
       </c>
       <c r="G288" t="n">
         <v>0.2</v>
       </c>
       <c r="H288" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Elijah Moore</t>
+          <t>Tyquan Thornton</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="G289" t="n">
         <v>0.2</v>
       </c>
       <c r="H289" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Rashee Rice</t>
+          <t>Elijah Moore</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D290" t="n">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="G290" t="n">
         <v>0.2</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Skyy Moore</t>
+          <t>Rashee Rice</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="D291" t="n">
-        <v>24.9</v>
+        <v>27.8</v>
       </c>
       <c r="G291" t="n">
         <v>0.2</v>
       </c>
       <c r="H291" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Odell Beckham Jr.</t>
+          <t>Skyy Moore</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="D292" t="n">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
       <c r="G292" t="n">
         <v>0.2</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Mecole Hardman Jr.</t>
+          <t>Odell Beckham Jr.</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="D293" t="n">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="G293" t="n">
         <v>0.2</v>
       </c>
       <c r="H293" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Ben Skowronek</t>
+          <t>Mecole Hardman Jr.</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D294" t="n">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="G294" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H294" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Kendrick Bourne</t>
+          <t>Ben Skowronek</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>23.2</v>
+        <v>27.5</v>
       </c>
       <c r="G295" t="n">
         <v>0.1</v>
       </c>
       <c r="H295" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Wan'Dale Robinson</t>
+          <t>Kendrick Bourne</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D296" t="n">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="G296" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H296" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Parris Campbell</t>
+          <t>Wan'Dale Robinson</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>22.6</v>
+        <v>24.9</v>
       </c>
       <c r="G297" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Jalin Hyatt</t>
+          <t>Parris Campbell</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D298" t="n">
-        <v>21.3</v>
+        <v>22.6</v>
       </c>
       <c r="G298" t="n">
         <v>0.1</v>
       </c>
       <c r="H298" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Joshua Palmer</t>
+          <t>Jalin Hyatt</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D299" t="n">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="G299" t="n">
         <v>0.1</v>
@@ -6770,30 +6773,30 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Cedrick Wilson Jr.</t>
+          <t>Joshua Palmer</t>
         </is>
       </c>
       <c r="C300" t="n">
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="G300" t="n">
         <v>0.1</v>
       </c>
       <c r="H300" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Nick Westbrook-Ikhine</t>
+          <t>Cedrick Wilson Jr.</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
         <v>20.8</v>
@@ -6808,178 +6811,178 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Isaiah McKenzie</t>
+          <t>Nick Westbrook-Ikhine</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D302" t="n">
-        <v>18.6</v>
+        <v>20.8</v>
       </c>
       <c r="G302" t="n">
         <v>0.1</v>
       </c>
       <c r="H302" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Marvin Mims Jr.</t>
+          <t>Isaiah McKenzie</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="D303" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="G303" t="n">
         <v>0.1</v>
       </c>
       <c r="H303" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Laviska Shenault Jr.</t>
+          <t>Marvin Mims Jr.</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>6.1</v>
+        <v>0.3</v>
       </c>
       <c r="D304" t="n">
-        <v>13.3</v>
+        <v>18.8</v>
       </c>
       <c r="G304" t="n">
         <v>0.1</v>
       </c>
       <c r="H304" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Amari Rodgers</t>
+          <t>Laviska Shenault Jr.</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="D305" t="n">
-        <v>18.1</v>
+        <v>13.3</v>
       </c>
       <c r="G305" t="n">
         <v>0.1</v>
       </c>
       <c r="H305" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Kalif Raymond</t>
+          <t>Amari Rodgers</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="D306" t="n">
-        <v>14.9</v>
+        <v>18.1</v>
       </c>
       <c r="G306" t="n">
         <v>0.1</v>
       </c>
       <c r="H306" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Marquez Callaway</t>
+          <t>Kalif Raymond</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D307" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="G307" t="n">
         <v>0.1</v>
       </c>
       <c r="H307" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Tutu Atwell</t>
+          <t>Marquez Callaway</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>13.7</v>
+        <v>15.3</v>
       </c>
       <c r="G308" t="n">
         <v>0.1</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Demarcus Robinson</t>
+          <t>Tutu Atwell</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D309" t="n">
-        <v>15.9</v>
+        <v>13.7</v>
       </c>
       <c r="G309" t="n">
         <v>0.1</v>
       </c>
       <c r="H309" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Terrace Marshall Jr.</t>
+          <t>Demarcus Robinson</t>
         </is>
       </c>
       <c r="C310" t="n">
         <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="G310" t="n">
         <v>0.1</v>
       </c>
       <c r="H310" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Quez Watkins</t>
+          <t>Terrace Marshall Jr.</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -6992,20 +6995,20 @@
         <v>0.1</v>
       </c>
       <c r="H311" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Richie James Jr.</t>
+          <t>Quez Watkins</t>
         </is>
       </c>
       <c r="C312" t="n">
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>14.9</v>
+        <v>15.6</v>
       </c>
       <c r="G312" t="n">
         <v>0.1</v>
@@ -7017,14 +7020,14 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Josh Downs</t>
+          <t>Richie James Jr.</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="G313" t="n">
         <v>0.1</v>
@@ -7036,33 +7039,33 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Sterling Shepard</t>
+          <t>Josh Downs</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D314" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="G314" t="n">
         <v>0.1</v>
       </c>
       <c r="H314" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Braxton Berrios</t>
+          <t>Sterling Shepard</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="D315" t="n">
-        <v>12.4</v>
+        <v>15.4</v>
       </c>
       <c r="G315" t="n">
         <v>0.1</v>
@@ -7074,14 +7077,14 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Jauan Jennings</t>
+          <t>Braxton Berrios</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="D316" t="n">
-        <v>14.2</v>
+        <v>12.4</v>
       </c>
       <c r="G316" t="n">
         <v>0.1</v>
@@ -7093,71 +7096,71 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Noah Brown</t>
+          <t>Jauan Jennings</t>
         </is>
       </c>
       <c r="C317" t="n">
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="G317" t="n">
         <v>0.1</v>
       </c>
       <c r="H317" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Randall Cobb</t>
+          <t>Noah Brown</t>
         </is>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>13.6</v>
+        <v>15.3</v>
       </c>
       <c r="G318" t="n">
         <v>0.1</v>
       </c>
       <c r="H318" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Samori Toure</t>
+          <t>Randall Cobb</t>
         </is>
       </c>
       <c r="C319" t="n">
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="G319" t="n">
         <v>0.1</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Chris Moore</t>
+          <t>Samori Toure</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="G320" t="n">
         <v>0.1</v>
@@ -7169,71 +7172,71 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Jamal Agnew</t>
+          <t>Chris Moore</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="D321" t="n">
-        <v>8.5</v>
+        <v>12.6</v>
       </c>
       <c r="G321" t="n">
         <v>0.1</v>
       </c>
       <c r="H321" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Tank Dell</t>
+          <t>Jamal Agnew</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D322" t="n">
-        <v>12.1</v>
+        <v>8.5</v>
       </c>
       <c r="G322" t="n">
         <v>0.1</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Cade Johnson</t>
+          <t>Tank Dell</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="G323" t="n">
         <v>0.1</v>
       </c>
       <c r="H323" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Dee Eskridge</t>
+          <t>Cade Johnson</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="D324" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="G324" t="n">
         <v>0.1</v>
@@ -7245,14 +7248,14 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Trey Palmer</t>
+          <t>Dee Eskridge</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="D325" t="n">
-        <v>11.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G325" t="n">
         <v>0.1</v>
@@ -7264,33 +7267,33 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Marquise Goodwin</t>
+          <t>Trey Palmer</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="G326" t="n">
         <v>0.1</v>
       </c>
       <c r="H326" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>KhaDarel Hodge</t>
+          <t>Marquise Goodwin</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D327" t="n">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="G327" t="n">
         <v>0.1</v>
@@ -7302,169 +7305,169 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Kyle Philips</t>
+          <t>KhaDarel Hodge</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D328" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G328" t="n">
         <v>0.1</v>
       </c>
       <c r="H328" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Dyami Brown</t>
+          <t>Kyle Philips</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D329" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G329" t="n">
         <v>0.1</v>
       </c>
       <c r="H329" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Michael Wilson</t>
+          <t>Dyami Brown</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D330" t="n">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="G330" t="n">
         <v>0.1</v>
       </c>
       <c r="H330" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Garett Maag</t>
+          <t>Michael Wilson</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D331" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G331" t="n">
         <v>0.1</v>
       </c>
       <c r="H331" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Devin Duvernay</t>
+          <t>Garett Maag</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="D332" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G332" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H332" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Cody Chrest</t>
+          <t>Devin Duvernay</t>
         </is>
       </c>
       <c r="C333" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D333" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
+      <c r="H333" t="n">
         <v>0.6</v>
-      </c>
-      <c r="D333" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Justin Watson</t>
+          <t>Cody Chrest</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D334" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G334" t="n">
         <v>0.1</v>
       </c>
       <c r="H334" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Trenton Irwin</t>
+          <t>Justin Watson</t>
         </is>
       </c>
       <c r="C335" t="n">
         <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G335" t="n">
         <v>0.1</v>
       </c>
       <c r="H335" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Zach Pascal</t>
+          <t>Trenton Irwin</t>
         </is>
       </c>
       <c r="C336" t="n">
         <v>0</v>
       </c>
       <c r="D336" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H336" t="n">
         <v>0.8</v>
@@ -7473,52 +7476,52 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Olamide Zaccheaus</t>
+          <t>Zach Pascal</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G337" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Lynn Bowden Jr.</t>
+          <t>Olamide Zaccheaus</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D338" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>David Bell</t>
+          <t>Lynn Bowden Jr.</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D339" t="n">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G339" t="n">
         <v>0</v>
@@ -7530,33 +7533,33 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Brandon Powell</t>
+          <t>David Bell</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>7.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G340" t="n">
         <v>0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Calvin Austin III</t>
+          <t>Brandon Powell</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D341" t="n">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
@@ -7568,20 +7571,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Tre Nixon</t>
+          <t>Calvin Austin III</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D342" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="G342" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="343">
@@ -7891,14 +7894,14 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Damiere Byrd</t>
+          <t>Montrell Washington</t>
         </is>
       </c>
       <c r="C359" t="n">
         <v>0</v>
       </c>
       <c r="D359" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -7910,14 +7913,14 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Montrell Washington</t>
+          <t>Tre Tucker</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D360" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -7929,14 +7932,14 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Tre Tucker</t>
+          <t>DeAndre Carter</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D361" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
@@ -7948,14 +7951,14 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>DeAndre Carter</t>
+          <t>Andre Baccellia</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D362" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="G362" t="n">
         <v>0</v>
@@ -7967,14 +7970,14 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Andre Baccellia</t>
+          <t>Phillip Dorsett II</t>
         </is>
       </c>
       <c r="C363" t="n">
         <v>0</v>
       </c>
       <c r="D363" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
@@ -7986,185 +7989,185 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Phillip Dorsett II</t>
+          <t>Deven Thompkins</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D364" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="G364" t="n">
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Bryan Edwards</t>
+          <t>Scott Miller</t>
         </is>
       </c>
       <c r="C365" t="n">
         <v>0.1</v>
       </c>
       <c r="D365" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G365" t="n">
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Deven Thompkins</t>
+          <t>Cody Thompson</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G366" t="n">
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Scott Miller</t>
+          <t>Ray-Ray McCloud III</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="D367" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="G367" t="n">
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Cody Thompson</t>
+          <t>River Cracraft</t>
         </is>
       </c>
       <c r="C368" t="n">
         <v>0</v>
       </c>
       <c r="D368" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Ray-Ray McCloud III</t>
+          <t>Taylor Grimes</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="D369" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>River Cracraft</t>
+          <t>Dante Pettis</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D370" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Taylor Grimes</t>
+          <t>Tre'Quan Smith</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Dante Pettis</t>
+          <t>Kaylon Geiger Sr.</t>
         </is>
       </c>
       <c r="C372" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D372" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
+      <c r="H372" t="n">
         <v>0.3</v>
-      </c>
-      <c r="D372" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Tre'Quan Smith</t>
+          <t>Simi Fehoko</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D373" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
@@ -8176,109 +8179,109 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Kaylon Geiger Sr.</t>
+          <t>Byron Pringle</t>
         </is>
       </c>
       <c r="C374" t="n">
+        <v>0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
+      <c r="H374" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D374" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0.3</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Simi Fehoko</t>
+          <t>Joe Reed</t>
         </is>
       </c>
       <c r="C375" t="n">
+        <v>1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
+      <c r="H375" t="n">
         <v>0.1</v>
-      </c>
-      <c r="D375" t="n">
-        <v>4</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Byron Pringle</t>
+          <t>Mike Strachan</t>
         </is>
       </c>
       <c r="C376" t="n">
         <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="G376" t="n">
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Joe Reed</t>
+          <t>Lance McCutcheon</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="G377" t="n">
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Mike Strachan</t>
+          <t>Jalen Tolbert</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D378" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="G378" t="n">
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Lance McCutcheon</t>
+          <t>Easop Winston Jr.</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D379" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G379" t="n">
         <v>0</v>
@@ -8290,33 +8293,33 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Jalen Tolbert</t>
+          <t>Nelson Agholor</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G380" t="n">
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Easop Winston Jr.</t>
+          <t>Jalen Guyton</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
@@ -8328,33 +8331,33 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Nelson Agholor</t>
+          <t>Gunner Olszewski</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D382" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Jalen Guyton</t>
+          <t>James Proche II</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D383" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
@@ -8366,33 +8369,33 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Gunner Olszewski</t>
+          <t>Maurice Alexander</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D384" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G384" t="n">
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>James Proche II</t>
+          <t>Jaelon Darden</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D385" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G385" t="n">
         <v>0</v>
@@ -8404,7 +8407,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Maurice Alexander</t>
+          <t>Trinity Benson</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -8423,14 +8426,14 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Jaelon Darden</t>
+          <t>KaVontae Turpin</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D387" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="G387" t="n">
         <v>0</v>
@@ -8442,14 +8445,14 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Trinity Benson</t>
+          <t>Stanley Morgan Jr.</t>
         </is>
       </c>
       <c r="C388" t="n">
         <v>0</v>
       </c>
       <c r="D388" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G388" t="n">
         <v>0</v>
@@ -8461,14 +8464,14 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>KaVontae Turpin</t>
+          <t>Dennis Houston</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D389" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G389" t="n">
         <v>0</v>
@@ -8480,14 +8483,14 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Stanley Morgan Jr.</t>
+          <t>Brandon Johnson</t>
         </is>
       </c>
       <c r="C390" t="n">
         <v>0</v>
       </c>
       <c r="D390" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
@@ -8499,14 +8502,14 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Dennis Houston</t>
+          <t>Jason Moore Jr.</t>
         </is>
       </c>
       <c r="C391" t="n">
         <v>0</v>
       </c>
       <c r="D391" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>
@@ -8518,14 +8521,14 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Brandon Johnson</t>
+          <t>Andy Isabella</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D392" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="G392" t="n">
         <v>0</v>
@@ -8537,14 +8540,14 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Andy Isabella</t>
+          <t>Trent Taylor</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D393" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -8556,14 +8559,14 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Trent Taylor</t>
+          <t>Seth Williams</t>
         </is>
       </c>
       <c r="C394" t="n">
         <v>0</v>
       </c>
       <c r="D394" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -8575,14 +8578,14 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Seth Williams</t>
+          <t>Tim Jones</t>
         </is>
       </c>
       <c r="C395" t="n">
         <v>0</v>
       </c>
       <c r="D395" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -8613,14 +8616,14 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Tim Jones</t>
+          <t>Deonte Harty</t>
         </is>
       </c>
       <c r="C397" t="n">
         <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -8632,14 +8635,14 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Deonte Harty</t>
+          <t>Erik Ezukanma</t>
         </is>
       </c>
       <c r="C398" t="n">
         <v>0</v>
       </c>
       <c r="D398" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -8651,7 +8654,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Erik Ezukanma</t>
+          <t>Isaiah Coulter</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -8670,7 +8673,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Isaiah Coulter</t>
+          <t>Dezmon Patmon</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -8689,7 +8692,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Dezmon Patmon</t>
+          <t>Austin Trammell</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -8708,14 +8711,14 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Austin Trammell</t>
+          <t>C.J. Saunders</t>
         </is>
       </c>
       <c r="C402" t="n">
         <v>0</v>
       </c>
       <c r="D402" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -8727,7 +8730,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>C.J. Saunders</t>
+          <t>Miles Boykin</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -8746,7 +8749,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Miles Boykin</t>
+          <t>Jalen Camp</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -8765,7 +8768,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Jalen Camp</t>
+          <t>Matthew Slater</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -8784,7 +8787,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Matthew Slater</t>
+          <t>Alex Erickson</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -8803,7 +8806,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Alex Erickson</t>
+          <t>Keith Kirkwood</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -8822,7 +8825,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Keith Kirkwood</t>
+          <t>Dez Fitzpatrick</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -8841,14 +8844,14 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Dez Fitzpatrick</t>
+          <t>James Washington</t>
         </is>
       </c>
       <c r="C409" t="n">
         <v>0</v>
       </c>
       <c r="D409" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G409" t="n">
         <v>0</v>
@@ -9050,39 +9053,39 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Darrius Shepherd</t>
+          <t>Chris Conley</t>
         </is>
       </c>
       <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0</v>
+      </c>
+      <c r="H420" t="n">
         <v>0.2</v>
-      </c>
-      <c r="D420" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Chris Conley</t>
+          <t>Darrius Shepherd</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D421" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G421" t="n">
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -9107,14 +9110,14 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Malik Turner</t>
+          <t>Dax Milne</t>
         </is>
       </c>
       <c r="C423" t="n">
         <v>0</v>
       </c>
       <c r="D423" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G423" t="n">
         <v>0</v>
@@ -9126,7 +9129,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Dax Milne</t>
+          <t>Jakeem Grant Sr.</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -9145,7 +9148,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Jakeem Grant Sr.</t>
+          <t>Vyncint Smith</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -9164,14 +9167,14 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Vyncint Smith</t>
+          <t>Jamison Crowder</t>
         </is>
       </c>
       <c r="C426" t="n">
         <v>0</v>
       </c>
       <c r="D426" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G426" t="n">
         <v>0</v>
@@ -9202,26 +9205,26 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Jamison Crowder</t>
+          <t>Daurice Fountain</t>
         </is>
       </c>
       <c r="C428" t="n">
         <v>0</v>
       </c>
       <c r="D428" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G428" t="n">
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Daurice Fountain</t>
+          <t>Nsimba Webster</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -9240,14 +9243,14 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Nsimba Webster</t>
+          <t>Kawaan Baker</t>
         </is>
       </c>
       <c r="C430" t="n">
         <v>0</v>
       </c>
       <c r="D430" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="G430" t="n">
         <v>0</v>
@@ -9259,286 +9262,283 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Kawaan Baker</t>
-        </is>
-      </c>
-      <c r="C431" t="n">
-        <v>0</v>
+          <t>Travis Kelce</t>
+        </is>
       </c>
       <c r="D431" t="n">
-        <v>1.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H431" t="n">
-        <v>0.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Travis Kelce</t>
+          <t>Mark Andrews</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>82.09999999999999</v>
+        <v>59</v>
       </c>
       <c r="G432" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H432" t="n">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Mark Andrews</t>
+          <t>T.J. Hockenson</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>59</v>
+        <v>52.7</v>
       </c>
       <c r="G433" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H433" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>T.J. Hockenson</t>
+          <t>George Kittle</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>52.7</v>
+        <v>48.5</v>
       </c>
       <c r="G434" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H434" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>George Kittle</t>
+          <t>Darren Waller</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>48.5</v>
+        <v>49.2</v>
       </c>
       <c r="G435" t="n">
         <v>0.3</v>
       </c>
       <c r="H435" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Darren Waller</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>49.2</v>
+        <v>47.4</v>
       </c>
       <c r="G436" t="n">
         <v>0.3</v>
       </c>
       <c r="H436" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Dallas Goedert</t>
+          <t>Evan Engram</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>47.4</v>
+        <v>44.7</v>
       </c>
       <c r="G437" t="n">
         <v>0.3</v>
       </c>
       <c r="H437" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Evan Engram</t>
+          <t>Kyle Pitts</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>44.7</v>
+        <v>41.7</v>
       </c>
       <c r="G438" t="n">
         <v>0.3</v>
       </c>
       <c r="H438" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Kyle Pitts</t>
+          <t>Dalton Schultz</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>41.7</v>
+        <v>38.2</v>
       </c>
       <c r="G439" t="n">
         <v>0.3</v>
       </c>
       <c r="H439" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Dalton Schultz</t>
+          <t>Juwan Johnson</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>38.2</v>
+        <v>37</v>
       </c>
       <c r="G440" t="n">
         <v>0.3</v>
       </c>
       <c r="H440" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Juwan Johnson</t>
+          <t>Gerald Everett</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>37</v>
+        <v>35.8</v>
       </c>
       <c r="G441" t="n">
         <v>0.3</v>
       </c>
       <c r="H441" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Gerald Everett</t>
+          <t>Tyler Higbee</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="G442" t="n">
         <v>0.3</v>
       </c>
       <c r="H442" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Tyler Higbee</t>
+          <t>David Njoku</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="G443" t="n">
         <v>0.3</v>
       </c>
       <c r="H443" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>David Njoku</t>
+          <t>Greg Dulcich</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>34.2</v>
+        <v>33.5</v>
       </c>
       <c r="G444" t="n">
         <v>0.3</v>
       </c>
       <c r="H444" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Greg Dulcich</t>
+          <t>Pat Freiermuth</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>33.5</v>
+        <v>34.2</v>
       </c>
       <c r="G445" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Pat Freiermuth</t>
+          <t>Chigoziem Okonkwo</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>34.2</v>
+        <v>32.2</v>
       </c>
       <c r="G446" t="n">
         <v>0.2</v>
       </c>
       <c r="H446" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Chigoziem Okonkwo</t>
+          <t>Irv Smith Jr.</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>32.2</v>
+        <v>30</v>
       </c>
       <c r="G447" t="n">
         <v>0.2</v>
       </c>
       <c r="H447" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Irv Smith Jr.</t>
+          <t>Hayden Hurst</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="G448" t="n">
         <v>0.2</v>
@@ -9550,171 +9550,171 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Hayden Hurst</t>
+          <t>Hunter Henry</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>30.3</v>
+        <v>29.3</v>
       </c>
       <c r="G449" t="n">
         <v>0.2</v>
       </c>
       <c r="H449" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Hunter Henry</t>
+          <t>Logan Thomas</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="G450" t="n">
         <v>0.2</v>
       </c>
       <c r="H450" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Logan Thomas</t>
+          <t>Jelani Woods</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="G451" t="n">
         <v>0.2</v>
       </c>
       <c r="H451" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Jelani Woods</t>
+          <t>Cade Otton</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="G452" t="n">
         <v>0.2</v>
       </c>
       <c r="H452" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Cade Otton</t>
+          <t>Noah Fant</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>28.7</v>
+        <v>25.3</v>
       </c>
       <c r="G453" t="n">
         <v>0.2</v>
       </c>
       <c r="H453" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Noah Fant</t>
+          <t>Sam LaPorta</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="G454" t="n">
         <v>0.2</v>
       </c>
       <c r="H454" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Sam LaPorta</t>
+          <t>Dalton Kincaid</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="G455" t="n">
         <v>0.2</v>
       </c>
       <c r="H455" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Dalton Kincaid</t>
+          <t>Taysom Hill</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>24.1</v>
+        <v>11.9</v>
       </c>
       <c r="G456" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H456" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Taysom Hill</t>
+          <t>Tyler Conklin</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>11.9</v>
+        <v>24</v>
       </c>
       <c r="G457" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H457" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Tyler Conklin</t>
+          <t>Mike Gesicki</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="G458" t="n">
         <v>0.2</v>
       </c>
       <c r="H458" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Mike Gesicki</t>
+          <t>Dawson Knox</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="G459" t="n">
         <v>0.2</v>
@@ -9726,59 +9726,59 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Dawson Knox</t>
+          <t>Zach Ertz</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>22.9</v>
+        <v>24.7</v>
       </c>
       <c r="G460" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H460" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Zach Ertz</t>
+          <t>Cole Kmet</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>24.7</v>
+        <v>20.9</v>
       </c>
       <c r="G461" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H461" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Cole Kmet</t>
+          <t>Luke Musgrave</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>20.9</v>
+        <v>22.2</v>
       </c>
       <c r="G462" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H462" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Luke Musgrave</t>
+          <t>Michael Mayer</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>22.2</v>
+        <v>20.4</v>
       </c>
       <c r="G463" t="n">
         <v>0.1</v>
@@ -9790,43 +9790,43 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Michael Mayer</t>
+          <t>Trey McBride</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="G464" t="n">
         <v>0.1</v>
       </c>
       <c r="H464" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Trey McBride</t>
+          <t>Josiah Deguara</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>19.8</v>
+        <v>18.8</v>
       </c>
       <c r="G465" t="n">
         <v>0.1</v>
       </c>
       <c r="H465" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Josiah Deguara</t>
+          <t>Austin Hooper</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="G466" t="n">
         <v>0.1</v>
@@ -9838,27 +9838,27 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Austin Hooper</t>
+          <t>Luke Schoonmaker</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>19.4</v>
+        <v>16.6</v>
       </c>
       <c r="G467" t="n">
         <v>0.1</v>
       </c>
       <c r="H467" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Luke Schoonmaker</t>
+          <t>Jake Ferguson</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="G468" t="n">
         <v>0.1</v>
@@ -9870,43 +9870,43 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Jake Ferguson</t>
+          <t>Isaiah Likely</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>16.3</v>
+        <v>17.7</v>
       </c>
       <c r="G469" t="n">
         <v>0.1</v>
       </c>
       <c r="H469" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Isaiah Likely</t>
+          <t>Jordan Akins</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>17.7</v>
+        <v>14.7</v>
       </c>
       <c r="G470" t="n">
         <v>0.1</v>
       </c>
       <c r="H470" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Jordan Akins</t>
+          <t>Charlie Kolar</t>
         </is>
       </c>
       <c r="D471" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="G471" t="n">
         <v>0.1</v>
@@ -9918,11 +9918,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Charlie Kolar</t>
+          <t>Will Dissly</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>14.9</v>
+        <v>12.2</v>
       </c>
       <c r="G472" t="n">
         <v>0.1</v>
@@ -9934,43 +9934,43 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Will Dissly</t>
+          <t>Durham Smythe</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="G473" t="n">
         <v>0.1</v>
       </c>
       <c r="H473" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Durham Smythe</t>
+          <t>Jimmy Graham</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="G474" t="n">
         <v>0.1</v>
       </c>
       <c r="H474" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Jimmy Graham</t>
+          <t>Donald Parham Jr.</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>11.5</v>
+        <v>10.9</v>
       </c>
       <c r="G475" t="n">
         <v>0.1</v>
@@ -9982,11 +9982,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Donald Parham Jr.</t>
+          <t>Albert Okwuegbunam</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G476" t="n">
         <v>0.1</v>
@@ -9998,11 +9998,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Albert Okwuegbunam</t>
+          <t>Brock Wright</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="G477" t="n">
         <v>0.1</v>
@@ -10014,59 +10014,59 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Brock Wright</t>
+          <t>Robert Tonyan</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="G478" t="n">
         <v>0.1</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Robert Tonyan</t>
+          <t>Harrison Bryant</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="G479" t="n">
         <v>0.1</v>
       </c>
       <c r="H479" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Harrison Bryant</t>
+          <t>Colby Parkinson</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="G480" t="n">
         <v>0.1</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Colby Parkinson</t>
+          <t>Kylen Granson</t>
         </is>
       </c>
       <c r="D481" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="G481" t="n">
         <v>0.1</v>
@@ -10078,75 +10078,75 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Kylen Granson</t>
+          <t>Geoff Swaim</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="G482" t="n">
         <v>0.1</v>
       </c>
       <c r="H482" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Geoff Swaim</t>
+          <t>Brevin Jordan</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="G483" t="n">
         <v>0.1</v>
       </c>
       <c r="H483" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Brevin Jordan</t>
+          <t>Eric Saubert</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="G484" t="n">
         <v>0.1</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Eric Saubert</t>
+          <t>Brycen Hopkins</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="G485" t="n">
         <v>0.1</v>
       </c>
       <c r="H485" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Brycen Hopkins</t>
+          <t>C.J. Uzomah</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G486" t="n">
         <v>0.1</v>
@@ -10158,11 +10158,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>C.J. Uzomah</t>
+          <t>Mo Alie-Cox</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G487" t="n">
         <v>0.1</v>
@@ -10174,11 +10174,11 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Mo Alie-Cox</t>
+          <t>Jonnu Smith</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="G488" t="n">
         <v>0.1</v>
@@ -10190,27 +10190,27 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Jonnu Smith</t>
+          <t>Noah Gray</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="G489" t="n">
         <v>0.1</v>
       </c>
       <c r="H489" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Noah Gray</t>
+          <t>Ian Thomas</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="G490" t="n">
         <v>0.1</v>
@@ -10222,30 +10222,30 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Ian Thomas</t>
+          <t>Jody Fortson</t>
         </is>
       </c>
       <c r="D491" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="G491" t="n">
         <v>0.1</v>
       </c>
       <c r="H491" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Jody Fortson</t>
+          <t>Hunter Long</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="G492" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H492" t="n">
         <v>0.4</v>
@@ -10254,7 +10254,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Hunter Long</t>
+          <t>Foster Moreau</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -10270,39 +10270,39 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Foster Moreau</t>
+          <t>Blake Bell</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="G494" t="n">
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Blake Bell</t>
+          <t>Tommy Tremble</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="G495" t="n">
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Tommy Tremble</t>
+          <t>John Bates</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -10318,7 +10318,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>John Bates</t>
+          <t>Armani Rogers</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -10334,71 +10334,71 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Armani Rogers</t>
+          <t>Daniel Bellinger</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="G498" t="n">
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Daniel Bellinger</t>
+          <t>Zach Gentry</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G499" t="n">
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Zach Gentry</t>
+          <t>James Mitchell</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="G500" t="n">
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>James Mitchell</t>
+          <t>Luke Farrell</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>
       </c>
       <c r="H501" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Luke Farrell</t>
+          <t>Shane Zylstra</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -10408,13 +10408,13 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Shane Zylstra</t>
+          <t>Tanner Hudson</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -10430,11 +10430,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Tanner Hudson</t>
+          <t>Quintin Morris</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G504" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Quintin Morris</t>
+          <t>Tanner Conner</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -10462,7 +10462,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Tanner Conner</t>
+          <t>Devin Asiasi</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -10472,13 +10472,13 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Devin Asiasi</t>
+          <t>Tucker Kraft</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -10488,13 +10488,13 @@
         <v>0</v>
       </c>
       <c r="H507" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Tucker Kraft</t>
+          <t>Dominique Dafney</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -10510,11 +10510,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Dominique Dafney</t>
+          <t>Ko Kieft</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G509" t="n">
         <v>0</v>
@@ -10526,7 +10526,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Ko Kieft</t>
+          <t>Tyler Davis</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -10542,7 +10542,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Tyler Davis</t>
+          <t>Peyton Hendershot</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -10558,7 +10558,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Peyton Hendershot</t>
+          <t>Tyler Mabry</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -10574,7 +10574,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Tyler Mabry</t>
+          <t>Sean McKeon</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -10590,11 +10590,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Sean McKeon</t>
+          <t>Adam Trautman</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G514" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Adam Trautman</t>
+          <t>Drew Sample</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -10616,13 +10616,13 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Drew Sample</t>
+          <t>Chris Manhertz</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -10632,13 +10632,13 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Chris Manhertz</t>
+          <t>Teagan Quitoriano</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -10654,11 +10654,11 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Teagan Quitoriano</t>
+          <t>Eric Tomlinson</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G518" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Eric Tomlinson</t>
+          <t>Johnny Mundt</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -10686,7 +10686,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Johnny Mundt</t>
+          <t>Dalton Keene</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -10702,7 +10702,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Dalton Keene</t>
+          <t>Mason Schreck</t>
         </is>
       </c>
       <c r="D521" t="n">
@@ -10718,7 +10718,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Mason Schreck</t>
+          <t>Josh Oliver</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -10734,7 +10734,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Josh Oliver</t>
+          <t>Jeremy Ruckert</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -10750,11 +10750,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Jeremy Ruckert</t>
+          <t>Cole Turner</t>
         </is>
       </c>
       <c r="D524" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G524" t="n">
         <v>0</v>
@@ -10766,11 +10766,11 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Cole Turner</t>
+          <t>Stephen Sullivan</t>
         </is>
       </c>
       <c r="D525" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G525" t="n">
         <v>0</v>
@@ -10782,7 +10782,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Stephen Sullivan</t>
+          <t>Noah Togiai</t>
         </is>
       </c>
       <c r="D526" t="n">
@@ -10798,7 +10798,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Noah Togiai</t>
+          <t>Anthony Firkser</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -10814,11 +10814,11 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Anthony Firkser</t>
+          <t>Connor Heyward</t>
         </is>
       </c>
       <c r="D528" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G528" t="n">
         <v>0</v>
@@ -10830,7 +10830,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Connor Heyward</t>
+          <t>Ross Dwelley</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -10846,7 +10846,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Ross Dwelley</t>
+          <t>Jesper Horsted</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -10862,11 +10862,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Jesper Horsted</t>
+          <t>Charlie Woerner</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G531" t="n">
         <v>0</v>
@@ -10878,11 +10878,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Charlie Woerner</t>
+          <t>Chris Myarick</t>
         </is>
       </c>
       <c r="D532" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G532" t="n">
         <v>0</v>
@@ -10894,7 +10894,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Chris Myarick</t>
+          <t>Tommy Sweeney</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -10910,7 +10910,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Tommy Sweeney</t>
+          <t>Nick Vannett</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -10926,7 +10926,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Nick Vannett</t>
+          <t>Pharaoh Brown</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -10942,7 +10942,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Pharaoh Brown</t>
+          <t>Grant Calcaterra</t>
         </is>
       </c>
       <c r="D536" t="n">
@@ -10958,11 +10958,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Grant Calcaterra</t>
+          <t>Jack Stoll</t>
         </is>
       </c>
       <c r="D537" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G537" t="n">
         <v>0</v>
@@ -10974,7 +10974,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Jack Stoll</t>
+          <t>Kaden Smith</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -10990,11 +10990,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Kaden Smith</t>
+          <t>Parker Hesse</t>
         </is>
       </c>
       <c r="D539" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G539" t="n">
         <v>0</v>
@@ -11006,7 +11006,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Parker Hesse</t>
+          <t>Feleipe Franks</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -11022,125 +11022,131 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Feleipe Franks</t>
-        </is>
-      </c>
-      <c r="D541" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G541" t="n">
-        <v>0</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0.2</v>
+          <t>Commanders</t>
+        </is>
+      </c>
+      <c r="I541" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J541" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K541" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L541" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Jake Tonges</t>
-        </is>
-      </c>
-      <c r="D542" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G542" t="n">
-        <v>0</v>
-      </c>
-      <c r="H542" t="n">
-        <v>0.2</v>
+          <t>Packers</t>
+        </is>
+      </c>
+      <c r="I542" t="n">
+        <v>1</v>
+      </c>
+      <c r="J542" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L542" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Commanders</t>
+          <t>Vikings</t>
         </is>
       </c>
       <c r="I543" t="n">
         <v>0.9</v>
       </c>
       <c r="J543" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="K543" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L543" t="n">
-        <v>18.5</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Packers</t>
+          <t>Seahawks</t>
         </is>
       </c>
       <c r="I544" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J544" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="K544" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L544" t="n">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Vikings</t>
+          <t>Saints</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J545" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="K545" t="n">
         <v>0.6</v>
       </c>
       <c r="L545" t="n">
-        <v>21.1</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Seahawks</t>
+          <t>Ravens</t>
         </is>
       </c>
       <c r="I546" t="n">
         <v>0.9</v>
       </c>
       <c r="J546" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K546" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L546" t="n">
-        <v>19.8</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Saints</t>
+          <t>49ers</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J547" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K547" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L547" t="n">
         <v>19.2</v>
@@ -11149,513 +11155,475 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Ravens</t>
+          <t>Falcons</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J548" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K548" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L548" t="n">
-        <v>17.5</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>49ers</t>
+          <t>Eagles</t>
         </is>
       </c>
       <c r="I549" t="n">
         <v>0.9</v>
       </c>
       <c r="J549" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="K549" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L549" t="n">
-        <v>19.2</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Falcons</t>
+          <t>Bengals</t>
         </is>
       </c>
       <c r="I550" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J550" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="K550" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L550" t="n">
-        <v>19.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Eagles</t>
+          <t>Steelers</t>
         </is>
       </c>
       <c r="I551" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J551" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K551" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L551" t="n">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Bengals</t>
+          <t>Jets</t>
         </is>
       </c>
       <c r="I552" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J552" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="K552" t="n">
         <v>0.6</v>
       </c>
       <c r="L552" t="n">
-        <v>21.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Steelers</t>
+          <t>Buccaneers</t>
         </is>
       </c>
       <c r="I553" t="n">
         <v>0.8</v>
       </c>
       <c r="J553" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="K553" t="n">
         <v>0.6</v>
       </c>
       <c r="L553" t="n">
-        <v>21.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Jets</t>
+          <t>Rams</t>
         </is>
       </c>
       <c r="I554" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J554" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K554" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L554" t="n">
-        <v>23</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Buccaneers</t>
+          <t>Raiders</t>
         </is>
       </c>
       <c r="I555" t="n">
         <v>0.8</v>
       </c>
       <c r="J555" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="K555" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L555" t="n">
-        <v>26.1</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Rams</t>
+          <t>Cowboys</t>
         </is>
       </c>
       <c r="I556" t="n">
         <v>0.8</v>
       </c>
       <c r="J556" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K556" t="n">
         <v>0.5</v>
       </c>
       <c r="L556" t="n">
-        <v>25.6</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Raiders</t>
+          <t>Chargers</t>
         </is>
       </c>
       <c r="I557" t="n">
         <v>0.8</v>
       </c>
       <c r="J557" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="K557" t="n">
         <v>0.5</v>
       </c>
       <c r="L557" t="n">
-        <v>23.2</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Cowboys</t>
+          <t>Cardinals</t>
         </is>
       </c>
       <c r="I558" t="n">
         <v>0.8</v>
       </c>
       <c r="J558" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K558" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L558" t="n">
-        <v>20.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Chargers</t>
+          <t>Browns</t>
         </is>
       </c>
       <c r="I559" t="n">
         <v>0.8</v>
       </c>
       <c r="J559" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="K559" t="n">
         <v>0.5</v>
       </c>
       <c r="L559" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Cardinals</t>
+          <t>Jaguars</t>
         </is>
       </c>
       <c r="I560" t="n">
         <v>0.8</v>
       </c>
       <c r="J560" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K560" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L560" t="n">
-        <v>24</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Browns</t>
+          <t>Titans</t>
         </is>
       </c>
       <c r="I561" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J561" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="K561" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L561" t="n">
-        <v>23.5</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Jaguars</t>
+          <t>Panthers</t>
         </is>
       </c>
       <c r="I562" t="n">
         <v>0.8</v>
       </c>
       <c r="J562" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K562" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L562" t="n">
-        <v>20.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Titans</t>
+          <t>Bills</t>
         </is>
       </c>
       <c r="I563" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J563" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K563" t="n">
         <v>0.6</v>
       </c>
       <c r="L563" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Panthers</t>
+          <t>Patriots</t>
         </is>
       </c>
       <c r="I564" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J564" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K564" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L564" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Bills</t>
+          <t>Giants</t>
         </is>
       </c>
       <c r="I565" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J565" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K565" t="n">
         <v>0.6</v>
       </c>
       <c r="L565" t="n">
-        <v>22.2</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Patriots</t>
+          <t>Bears</t>
         </is>
       </c>
       <c r="I566" t="n">
         <v>0.7</v>
       </c>
       <c r="J566" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K566" t="n">
         <v>0.6</v>
       </c>
       <c r="L566" t="n">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Giants</t>
+          <t>Texans</t>
         </is>
       </c>
       <c r="I567" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J567" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K567" t="n">
         <v>0.6</v>
       </c>
       <c r="L567" t="n">
-        <v>24.9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Bears</t>
+          <t>Dolphins</t>
         </is>
       </c>
       <c r="I568" t="n">
         <v>0.7</v>
       </c>
       <c r="J568" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K568" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L568" t="n">
-        <v>21.8</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Texans</t>
+          <t>Colts</t>
         </is>
       </c>
       <c r="I569" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J569" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K569" t="n">
         <v>0.6</v>
       </c>
       <c r="L569" t="n">
-        <v>26</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Dolphins</t>
+          <t>Broncos</t>
         </is>
       </c>
       <c r="I570" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J570" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K570" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L570" t="n">
-        <v>25.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Colts</t>
+          <t>Chiefs</t>
         </is>
       </c>
       <c r="I571" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J571" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K571" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L571" t="n">
-        <v>23.6</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Broncos</t>
+          <t>Lions</t>
         </is>
       </c>
       <c r="I572" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J572" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K572" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L572" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>Chiefs</t>
-        </is>
-      </c>
-      <c r="I573" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J573" t="n">
-        <v>2</v>
-      </c>
-      <c r="K573" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L573" t="n">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>Lions</t>
-        </is>
-      </c>
-      <c r="I574" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J574" t="n">
-        <v>2</v>
-      </c>
-      <c r="K574" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L574" t="n">
         <v>27.4</v>
       </c>
     </row>
@@ -12226,11 +12194,7 @@
       <c r="F20" t="n">
         <v>20.42</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19977,7 +19941,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="G307" t="inlineStr"/>
     </row>
@@ -22110,7 +22074,7 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr"/>
     </row>
@@ -24000,7 +23964,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G456" t="inlineStr"/>
     </row>
@@ -24675,7 +24639,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="G481" t="inlineStr"/>
     </row>
@@ -24756,7 +24720,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="G484" t="inlineStr"/>
     </row>
@@ -27861,7 +27825,7 @@
         </is>
       </c>
       <c r="F599" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="G599" t="inlineStr"/>
     </row>
@@ -28997,7 +28961,11 @@
       <c r="F641" t="n">
         <v>5.2</v>
       </c>
-      <c r="G641" t="inlineStr"/>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -31371,7 +31339,7 @@
         </is>
       </c>
       <c r="F729" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G729" t="inlineStr"/>
     </row>
@@ -32426,7 +32394,11 @@
       <c r="F768" t="n">
         <v>4.600000000000001</v>
       </c>
-      <c r="G768" t="inlineStr"/>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
